--- a/output/fit_clients/fit_round_20.xlsx
+++ b/output/fit_clients/fit_round_20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,32 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_mu</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_U</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -485,25 +510,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D2" t="n">
-        <v>6698946980.918387</v>
+        <v>8576237861.285487</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001351815838892293</v>
+        <v>0.004212508431506714</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1857322133678726</v>
+        <v>0.1456873107076721</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3068048846673533</v>
+        <v>0.2037708785772396</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4286018237863258</v>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.253132714455287</v>
+      </c>
+      <c r="L2" t="n">
+        <v>8.184738966951297</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.7444883340640202</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6.705027714329105</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +556,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>555</v>
+        <v>601</v>
       </c>
       <c r="D3" t="n">
-        <v>5954574715.525452</v>
+        <v>10699404289.08262</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004891641142873002</v>
+        <v>0.004729482473230561</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2441419445472044</v>
+        <v>0.1471346766105778</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.516414053039973</v>
+        <v>0.2079856308933649</v>
       </c>
       <c r="I3" t="n">
-        <v>3.557903747440527</v>
+        <v>6</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.6332798307965799</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.871344524010563</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.6469656441193845</v>
+      </c>
+      <c r="N3" t="n">
+        <v>9.067968358377126</v>
       </c>
     </row>
     <row r="4">
@@ -547,25 +602,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>567</v>
+        <v>500</v>
       </c>
       <c r="D4" t="n">
-        <v>9089251614.272287</v>
+        <v>5317091594.840583</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002660625459979935</v>
+        <v>0.004673846907399744</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1634011459940103</v>
+        <v>0.2463179308911768</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2266676135894047</v>
+        <v>0.4968088302383062</v>
       </c>
       <c r="I4" t="n">
-        <v>3.634831396033836</v>
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1290021809797127</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8.060608433475723</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.7564708390270642</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7.068808347065561</v>
       </c>
     </row>
     <row r="5">
@@ -578,25 +648,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>554</v>
+        <v>411</v>
       </c>
       <c r="D5" t="n">
-        <v>5007204540.203864</v>
+        <v>11113114787.85439</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004016583157079982</v>
+        <v>0.001223787715423529</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2898108212573473</v>
+        <v>0.09687376676578474</v>
       </c>
       <c r="G5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6803013895239326</v>
+        <v>0.06162506943918889</v>
       </c>
       <c r="I5" t="n">
-        <v>3.551493110057752</v>
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.9801068718811173</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.1251475184112648</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.672269668679953</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.7953305358422323</v>
+      </c>
+      <c r="N5" t="n">
+        <v>12.23434104816469</v>
       </c>
     </row>
     <row r="6">
@@ -609,25 +694,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>467</v>
+        <v>514</v>
       </c>
       <c r="D6" t="n">
-        <v>8495463214.179324</v>
+        <v>8003482523.032269</v>
       </c>
       <c r="E6" t="n">
-        <v>0.004860331894281408</v>
+        <v>0.001582336081445277</v>
       </c>
       <c r="F6" t="n">
-        <v>0.143989220971298</v>
+        <v>0.1682225776248592</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1570059771057537</v>
+        <v>0.2693939309394905</v>
       </c>
       <c r="I6" t="n">
-        <v>2.993767657756263</v>
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2051108162877704</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8.136717068783781</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.7635530205443229</v>
+      </c>
+      <c r="N6" t="n">
+        <v>7.134343342102678</v>
       </c>
     </row>
     <row r="7">
@@ -640,25 +740,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>449</v>
+        <v>612</v>
       </c>
       <c r="D7" t="n">
-        <v>4080614115.349645</v>
+        <v>7767150116.035991</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00476053254405719</v>
+        <v>0.001883725710957506</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2882179193509029</v>
+        <v>0.2063905880601332</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6745851015498644</v>
+        <v>0.3805397787593203</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3562572534934238</v>
+        <v>8</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.9823451983786943</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.4091089579456998</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.213355241366474</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.8863029326460334</v>
+      </c>
+      <c r="N7" t="n">
+        <v>14.5127034115542</v>
       </c>
     </row>
     <row r="8">
@@ -671,25 +786,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>584</v>
+        <v>460</v>
       </c>
       <c r="D8" t="n">
-        <v>9001217115.219448</v>
+        <v>6387716127.593045</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002545926378417389</v>
+        <v>0.00141942319606712</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1699463239714006</v>
+        <v>0.188630705549845</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2501556400704616</v>
+        <v>0.3288227210380647</v>
       </c>
       <c r="I8" t="n">
-        <v>3.743812231541023</v>
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.1093358048275254</v>
+      </c>
+      <c r="L8" t="n">
+        <v>8.040942057323536</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.735333585428494</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6.665729651246345</v>
       </c>
     </row>
     <row r="9">
@@ -702,25 +832,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="D9" t="n">
-        <v>9342112357.715712</v>
+        <v>8845740640.383196</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004667730463380518</v>
+        <v>0.003457409428442477</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1244910268114537</v>
+        <v>0.1507244632420336</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.08703475518616026</v>
+        <v>0.2184391461302166</v>
       </c>
       <c r="I9" t="n">
-        <v>2.846322997952422</v>
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.4145510261416697</v>
+      </c>
+      <c r="L9" t="n">
+        <v>8.34615727863768</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.7610413025208971</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6.874668771780261</v>
       </c>
     </row>
     <row r="10">
@@ -733,25 +878,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>553</v>
+        <v>522</v>
       </c>
       <c r="D10" t="n">
-        <v>7653458378.303152</v>
+        <v>10774168056.28838</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001195970560627643</v>
+        <v>0.002444318691671547</v>
       </c>
       <c r="F10" t="n">
-        <v>0.189263807079219</v>
+        <v>0.1269073930215854</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.319478362286905</v>
+        <v>0.1490834623508574</v>
       </c>
       <c r="I10" t="n">
-        <v>3.545082472674976</v>
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.08828996757149382</v>
+      </c>
+      <c r="L10" t="n">
+        <v>8.019896220067505</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.7675321205426406</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7.330746190785309</v>
       </c>
     </row>
     <row r="11">
@@ -764,25 +924,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>411</v>
+        <v>579</v>
       </c>
       <c r="D11" t="n">
-        <v>6708303985.549665</v>
+        <v>4537352832.98938</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002341589887010742</v>
+        <v>0.003264219028667802</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1604830807189171</v>
+        <v>0.3342536641570342</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2161958441903743</v>
+        <v>0.7528790711555405</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3378624579531921</v>
+        <v>7</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.973681115799221</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.3925784889273141</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.39044386626866</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.8796661013032185</v>
+      </c>
+      <c r="N11" t="n">
+        <v>14.20287815979571</v>
       </c>
     </row>
     <row r="12">
@@ -795,25 +970,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D12" t="n">
-        <v>7617860409.315518</v>
+        <v>4846335665.345819</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001210634708075548</v>
+        <v>0.001077080645217143</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1664226819448787</v>
+        <v>0.2626775419422297</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2375106978680326</v>
+        <v>0.544448275405495</v>
       </c>
       <c r="I12" t="n">
-        <v>3.102748493263451</v>
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.1607638034554517</v>
+      </c>
+      <c r="L12" t="n">
+        <v>8.092370055951461</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.7492304748375108</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6.892239440798756</v>
       </c>
     </row>
     <row r="13">
@@ -826,25 +1016,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>473</v>
+        <v>547</v>
       </c>
       <c r="D13" t="n">
-        <v>9823304068.905529</v>
+        <v>13695321325.55484</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003799180704273011</v>
+        <v>0.004896683613022226</v>
       </c>
       <c r="F13" t="n">
-        <v>0.126125737461575</v>
+        <v>0.1046201323751674</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.09290107802284241</v>
+        <v>0.08418260815704444</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4104036213314169</v>
+        <v>3</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.2861305164984739</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4.865445521483164</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.7210798384589255</v>
+      </c>
+      <c r="N13" t="n">
+        <v>9.556151247695347</v>
       </c>
     </row>
     <row r="14">
@@ -857,25 +1062,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>529</v>
+        <v>615</v>
       </c>
       <c r="D14" t="n">
-        <v>7479132907.390758</v>
+        <v>12286988498.59772</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002083211896376473</v>
+        <v>0.002813756704495657</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1852697802215436</v>
+        <v>0.1311081922298414</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.305145397022523</v>
+        <v>0.1613162558393802</v>
       </c>
       <c r="I14" t="n">
-        <v>3.391227175488358</v>
+        <v>8</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.3490706857661113</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.153316969186886</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.5621958605555308</v>
+      </c>
+      <c r="N14" t="n">
+        <v>8.090600241923731</v>
       </c>
     </row>
     <row r="15">
@@ -888,25 +1108,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>561</v>
+        <v>375</v>
       </c>
       <c r="D15" t="n">
-        <v>6238721993.440109</v>
+        <v>6167717693.275679</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003835257473186202</v>
+        <v>0.001760728831000593</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2355414765307905</v>
+        <v>0.1592600859586871</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4855504124763657</v>
+        <v>0.2432950139811614</v>
       </c>
       <c r="I15" t="n">
-        <v>3.596367571737181</v>
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.1058441099141851</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5.714336676755734</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.6462320893833676</v>
+      </c>
+      <c r="N15" t="n">
+        <v>7.210305110911619</v>
       </c>
     </row>
     <row r="16">
@@ -919,25 +1154,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>597</v>
+        <v>509</v>
       </c>
       <c r="D16" t="n">
-        <v>6398205825.887856</v>
+        <v>3361772215.443486</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001409256946904231</v>
+        <v>0.004064863544109287</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2444084908417276</v>
+        <v>0.3965972185370432</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5173705811047278</v>
+        <v>0.9344244838885011</v>
       </c>
       <c r="I16" t="n">
-        <v>3.827150517517107</v>
+        <v>5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.5430529773554426</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4.09017512762413</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.6192766340260917</v>
+      </c>
+      <c r="N16" t="n">
+        <v>8.295357552897704</v>
       </c>
     </row>
     <row r="17">
@@ -950,25 +1200,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>443</v>
+        <v>548</v>
       </c>
       <c r="D17" t="n">
-        <v>11576356946.10598</v>
+        <v>5175357023.554062</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002632533958853625</v>
+        <v>0.003703471732622985</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1002379051891906</v>
+        <v>0.2773578157926297</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.587197464182232</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3631603898291469</v>
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.4100367184014016</v>
+      </c>
+      <c r="L17" t="n">
+        <v>8.341642970897412</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.7801426677049096</v>
+      </c>
+      <c r="N17" t="n">
+        <v>7.26121038320078</v>
       </c>
     </row>
     <row r="18">
@@ -981,25 +1246,40 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>466</v>
+        <v>419</v>
       </c>
       <c r="D18" t="n">
-        <v>6197673483.335136</v>
+        <v>8047802398.663462</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002530237705619667</v>
+        <v>0.00268396840055083</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1969506369256392</v>
+        <v>0.136375665757185</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3470633208032027</v>
+        <v>0.1766552217532034</v>
       </c>
       <c r="I18" t="n">
-        <v>2.987357020373488</v>
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1607979897498079</v>
+      </c>
+      <c r="L18" t="n">
+        <v>8.092404242245818</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.712086608043845</v>
+      </c>
+      <c r="N18" t="n">
+        <v>6.149327918631082</v>
       </c>
     </row>
     <row r="19">
@@ -1012,25 +1292,40 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D19" t="n">
-        <v>8129337171.519954</v>
+        <v>6478790868.891856</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003725842327384357</v>
+        <v>0.004381170488033023</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1617516597302293</v>
+        <v>0.2021511461789185</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2207482669837564</v>
+        <v>0.3681944571982301</v>
       </c>
       <c r="I19" t="n">
-        <v>3.218139966153414</v>
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.5012376349196741</v>
+      </c>
+      <c r="L19" t="n">
+        <v>8.432843887415684</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.7564708390270642</v>
+      </c>
+      <c r="N19" t="n">
+        <v>6.6965728931256</v>
       </c>
     </row>
     <row r="20">
@@ -1043,25 +1338,40 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="D20" t="n">
-        <v>6482062327.781178</v>
+        <v>13645881572.05382</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002579420329773804</v>
+        <v>0.00339823203015052</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2363974723650218</v>
+        <v>0.1084543598143843</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.4886222392305888</v>
+        <v>0.09534793887787149</v>
       </c>
       <c r="I20" t="n">
-        <v>3.750222868923799</v>
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.74589236555726</v>
+      </c>
+      <c r="L20" t="n">
+        <v>8.677498618053271</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.7881376220975603</v>
+      </c>
+      <c r="N20" t="n">
+        <v>7.085253823897936</v>
       </c>
     </row>
     <row r="21">
@@ -1074,25 +1384,40 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>540</v>
+        <v>377</v>
       </c>
       <c r="D21" t="n">
-        <v>7329857341.619757</v>
+        <v>4355455264.55568</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004981914292164171</v>
+        <v>0.002392255091252635</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1929738239199386</v>
+        <v>0.2267294622530672</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3327921291700989</v>
+        <v>0.4397669008988943</v>
       </c>
       <c r="I21" t="n">
-        <v>3.461744186698891</v>
+        <v>7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.1255351042622175</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.123400481603563</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-0.2830934469582839</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-8.785269420769243</v>
       </c>
     </row>
     <row r="22">
@@ -1105,25 +1430,40 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>548</v>
+        <v>604</v>
       </c>
       <c r="D22" t="n">
-        <v>11257907701.8718</v>
+        <v>5695651128.602804</v>
       </c>
       <c r="E22" t="n">
-        <v>0.003435409090929079</v>
+        <v>0.004228785649608674</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1275037740593075</v>
+        <v>0.2777753630405566</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.09784630032408739</v>
+        <v>0.5884133683476944</v>
       </c>
       <c r="I22" t="n">
-        <v>3.513029285761097</v>
+        <v>10</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.3456865389672782</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2.853880665119275</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.3715546118523134</v>
+      </c>
+      <c r="N22" t="n">
+        <v>4.577211571926993</v>
       </c>
     </row>
     <row r="23">
@@ -1136,25 +1476,40 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="D23" t="n">
-        <v>7223984960.731954</v>
+        <v>7914951181.422714</v>
       </c>
       <c r="E23" t="n">
-        <v>0.003950282358147591</v>
+        <v>0.00442692559926159</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1733210169741462</v>
+        <v>0.1780468113698069</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2622660637881574</v>
+        <v>0.2980022544101124</v>
       </c>
       <c r="I23" t="n">
-        <v>3.064284668966796</v>
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.4719053501680949</v>
+      </c>
+      <c r="L23" t="n">
+        <v>8.403511602664105</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.775348998005167</v>
+      </c>
+      <c r="N23" t="n">
+        <v>7.103468357439235</v>
       </c>
     </row>
     <row r="24">
@@ -1167,25 +1522,40 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>525</v>
+        <v>569</v>
       </c>
       <c r="D24" t="n">
-        <v>6177786029.732015</v>
+        <v>9776567677.072702</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002757449512240559</v>
+        <v>0.004152234714061027</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2226007413305724</v>
+        <v>0.1524495057191958</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0.4391112885721656</v>
+        <v>0.2234624970060647</v>
       </c>
       <c r="I24" t="n">
-        <v>3.365584625957255</v>
+        <v>4</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.9825256026680774</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.3610507490155844</v>
+      </c>
+      <c r="L24" t="n">
+        <v>4.326853875263589</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.9330875068229207</v>
+      </c>
+      <c r="N24" t="n">
+        <v>14.33489626119483</v>
       </c>
     </row>
     <row r="25">
@@ -1198,25 +1568,40 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="D25" t="n">
-        <v>4674436553.974607</v>
+        <v>10846979265.1626</v>
       </c>
       <c r="E25" t="n">
-        <v>0.003374091722585616</v>
+        <v>0.003735397575031725</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2829842559046499</v>
+        <v>0.1190524327955044</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.6558035762738251</v>
+        <v>0.126209694397997</v>
       </c>
       <c r="I25" t="n">
-        <v>0.381598099578408</v>
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.332831625603894</v>
+      </c>
+      <c r="L25" t="n">
+        <v>8.264437878099905</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.7528709657897692</v>
+      </c>
+      <c r="N25" t="n">
+        <v>6.792981437695479</v>
       </c>
     </row>
     <row r="26">
@@ -1229,25 +1614,40 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>418</v>
+        <v>591</v>
       </c>
       <c r="D26" t="n">
-        <v>4335277610.247329</v>
+        <v>10554478905.11237</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001619619687924144</v>
+        <v>0.003346233460880628</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2525570721035176</v>
+        <v>0.1466732279175007</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0.5466125808060532</v>
+        <v>0.206641885027848</v>
       </c>
       <c r="I26" t="n">
-        <v>2.679646426000253</v>
+        <v>10</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.9819908319857739</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.4030221979124763</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2.911216324064474</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.827379772378126</v>
+      </c>
+      <c r="N26" t="n">
+        <v>13.63637912349805</v>
       </c>
     </row>
     <row r="27">
@@ -1260,25 +1660,40 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="D27" t="n">
-        <v>9290264549.196926</v>
+        <v>8708000475.366001</v>
       </c>
       <c r="E27" t="n">
-        <v>0.001976772246546785</v>
+        <v>0.00401423750995453</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1576100446059496</v>
+        <v>0.1765711812200349</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2058856664479932</v>
+        <v>0.2937051961617385</v>
       </c>
       <c r="I27" t="n">
-        <v>3.58354629697163</v>
+        <v>7</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.3302913468181577</v>
+      </c>
+      <c r="L27" t="n">
+        <v>3.328156724159504</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.5894954965923622</v>
+      </c>
+      <c r="N27" t="n">
+        <v>8.461753207687741</v>
       </c>
     </row>
     <row r="28">
@@ -1291,25 +1706,40 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>440</v>
+        <v>578</v>
       </c>
       <c r="D28" t="n">
-        <v>5707592495.897744</v>
+        <v>11937888824.57181</v>
       </c>
       <c r="E28" t="n">
-        <v>0.004708951780596967</v>
+        <v>0.003820774004081493</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2019295527542246</v>
+        <v>0.1268237158385754</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.3649306587476778</v>
+        <v>0.1488397930753895</v>
       </c>
       <c r="I28" t="n">
-        <v>2.820680448421319</v>
+        <v>8</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.4054813749558649</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3.209727658376639</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.5209582966275379</v>
+      </c>
+      <c r="N28" t="n">
+        <v>7.209438274174119</v>
       </c>
     </row>
     <row r="29">
@@ -1322,25 +1752,40 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>521</v>
+        <v>618</v>
       </c>
       <c r="D29" t="n">
-        <v>5205757893.923392</v>
+        <v>4710702581.27946</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003648709149239378</v>
+        <v>0.004965611296417732</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2621524507685994</v>
+        <v>0.3436394024180417</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.5810465578437678</v>
+        <v>0.7802104888673373</v>
       </c>
       <c r="I29" t="n">
-        <v>3.339942076426153</v>
+        <v>11</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.3039302971158022</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.695399562967271</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-0.1121377153181323</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-4.938153869329918</v>
       </c>
     </row>
     <row r="30">
@@ -1353,25 +1798,40 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>588</v>
+        <v>477</v>
       </c>
       <c r="D30" t="n">
-        <v>10003959990.0503</v>
+        <v>9443848565.500656</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003692672530015469</v>
+        <v>0.004754256667193547</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1539591643241124</v>
+        <v>0.1323029505750828</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1927841170271551</v>
+        <v>0.1647954109671243</v>
       </c>
       <c r="I30" t="n">
-        <v>0.3600228581415876</v>
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.08891684913212877</v>
+      </c>
+      <c r="L30" t="n">
+        <v>8.02052310162814</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.7444883340640202</v>
+      </c>
+      <c r="N30" t="n">
+        <v>6.869243579652263</v>
       </c>
     </row>
     <row r="31">
@@ -1384,25 +1844,40 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>562</v>
+        <v>375</v>
       </c>
       <c r="D31" t="n">
-        <v>7002273624.24914</v>
+        <v>3756397391.530783</v>
       </c>
       <c r="E31" t="n">
-        <v>0.004953000027454639</v>
+        <v>0.00204219693722102</v>
       </c>
       <c r="F31" t="n">
-        <v>0.210231313284027</v>
+        <v>0.2614929006751629</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.3947223575887137</v>
+        <v>0.5409985813688153</v>
       </c>
       <c r="I31" t="n">
-        <v>3.602778209119957</v>
+        <v>4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.266000698078337</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4.231803824326343</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.5463534853312116</v>
+      </c>
+      <c r="N31" t="n">
+        <v>6.69526588229789</v>
       </c>
     </row>
     <row r="32">
@@ -1415,25 +1890,40 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>448</v>
+        <v>397</v>
       </c>
       <c r="D32" t="n">
-        <v>8288095090.907459</v>
+        <v>5322768976.647768</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002302539363220608</v>
+        <v>0.003322977913475706</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1415870241748778</v>
+        <v>0.1953678310222132</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1483854533916644</v>
+        <v>0.3484413365738357</v>
       </c>
       <c r="I32" t="n">
-        <v>2.871965547483525</v>
+        <v>8</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.1469596024844155</v>
+      </c>
+      <c r="L32" t="n">
+        <v>2.95120588590519</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-0.3999085419918622</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-10.94937672574243</v>
       </c>
     </row>
     <row r="33">
@@ -1446,25 +1936,40 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>419</v>
+        <v>519</v>
       </c>
       <c r="D33" t="n">
-        <v>8495749158.119912</v>
+        <v>6325656146.338645</v>
       </c>
       <c r="E33" t="n">
-        <v>0.003042729667140085</v>
+        <v>0.003449276237456637</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1291851241807237</v>
+        <v>0.2149126317570821</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.1038799935730978</v>
+        <v>0.4053561042909137</v>
       </c>
       <c r="I33" t="n">
-        <v>2.686057063383029</v>
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.1980929324883558</v>
+      </c>
+      <c r="L33" t="n">
+        <v>8.129699184984366</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.766045606398789</v>
+      </c>
+      <c r="N33" t="n">
+        <v>7.191212942991415</v>
       </c>
     </row>
     <row r="34">
@@ -1477,25 +1982,40 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>537</v>
+        <v>424</v>
       </c>
       <c r="D34" t="n">
-        <v>6784986014.959024</v>
+        <v>7276307999.56807</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00168172816104123</v>
+        <v>0.004010447019284172</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2073125024721948</v>
+        <v>0.1526352870254981</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3842479127564519</v>
+        <v>0.2240034950974651</v>
       </c>
       <c r="I34" t="n">
-        <v>3.442512274550564</v>
+        <v>6</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.3228009004294777</v>
+      </c>
+      <c r="L34" t="n">
+        <v>3.560865593643461</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.4631733675568583</v>
+      </c>
+      <c r="N34" t="n">
+        <v>5.702601757493705</v>
       </c>
     </row>
     <row r="35">
@@ -1508,25 +2028,40 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>474</v>
+        <v>611</v>
       </c>
       <c r="D35" t="n">
-        <v>5380457991.082787</v>
+        <v>11212624199.90386</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002295289182122432</v>
+        <v>0.00487487922544918</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2307593260755367</v>
+        <v>0.142736192836439</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0.46838918677442</v>
+        <v>0.1951771768339776</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4089058176520557</v>
+        <v>7</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.9831961329522176</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.3364461087558254</v>
+      </c>
+      <c r="L35" t="n">
+        <v>3.334311486097171</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.9053720732468601</v>
+      </c>
+      <c r="N35" t="n">
+        <v>14.77312997884003</v>
       </c>
     </row>
     <row r="36">
@@ -1539,25 +2074,40 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>590</v>
+        <v>463</v>
       </c>
       <c r="D36" t="n">
-        <v>7875083052.126931</v>
+        <v>10963606930.0752</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0016731837889433</v>
+        <v>0.004396834918372778</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1962442922532229</v>
+        <v>0.1106184832906703</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.3445285322263637</v>
+        <v>0.1016499005419856</v>
       </c>
       <c r="I36" t="n">
-        <v>3.782276055837678</v>
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.1447429700792935</v>
+      </c>
+      <c r="L36" t="n">
+        <v>8.076349222575304</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7369684797259696</v>
+      </c>
+      <c r="N36" t="n">
+        <v>6.663020371944087</v>
       </c>
     </row>
     <row r="37">
@@ -1570,25 +2120,40 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>459</v>
+        <v>378</v>
       </c>
       <c r="D37" t="n">
-        <v>10582280935.00496</v>
+        <v>12938984656.38894</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003464404985076307</v>
+        <v>0.003463822825190348</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1136144482824049</v>
+        <v>0.0765229611359883</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.04800306416170054</v>
+        <v>0.002363202767461965</v>
       </c>
       <c r="I37" t="n">
-        <v>2.942482558694058</v>
+        <v>6</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.2619616085761116</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3.500026301790095</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.3688597290805557</v>
+      </c>
+      <c r="N37" t="n">
+        <v>3.877168279821019</v>
       </c>
     </row>
     <row r="38">
@@ -1601,25 +2166,40 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>409</v>
+        <v>481</v>
       </c>
       <c r="D38" t="n">
-        <v>4497436111.206907</v>
+        <v>7528104399.719531</v>
       </c>
       <c r="E38" t="n">
-        <v>0.001880144056847697</v>
+        <v>0.002473299080977689</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2382091670697471</v>
+        <v>0.1673630602209688</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4951236870670226</v>
+        <v>0.2668910027155186</v>
       </c>
       <c r="I38" t="n">
-        <v>2.621950689555272</v>
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.185263249270528</v>
+      </c>
+      <c r="L38" t="n">
+        <v>8.116869501766539</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.7466046315015308</v>
+      </c>
+      <c r="N38" t="n">
+        <v>6.815223128264076</v>
       </c>
     </row>
     <row r="39">
@@ -1632,25 +2212,40 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>445</v>
+        <v>573</v>
       </c>
       <c r="D39" t="n">
-        <v>8008601858.997674</v>
+        <v>4126167655.656518</v>
       </c>
       <c r="E39" t="n">
-        <v>0.003428804882655717</v>
+        <v>0.003401184631037176</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1455470718263282</v>
+        <v>0.3637541164723199</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.1625964808724789</v>
+        <v>0.8387848531509429</v>
       </c>
       <c r="I39" t="n">
-        <v>0.3824193453952726</v>
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.8796055806886142</v>
+      </c>
+      <c r="L39" t="n">
+        <v>8.811211833184624</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.7918353453707936</v>
+      </c>
+      <c r="N39" t="n">
+        <v>7.025495074231248</v>
       </c>
     </row>
     <row r="40">
@@ -1663,25 +2258,40 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D40" t="n">
-        <v>4669416444.970351</v>
+        <v>10704747450.44089</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003944419583593229</v>
+        <v>0.002234513778143185</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2984346109246737</v>
+        <v>0.1299326393676587</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.7112487221668246</v>
+        <v>0.1578930273809335</v>
       </c>
       <c r="I40" t="n">
-        <v>3.410459087636685</v>
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.4009578770091899</v>
+      </c>
+      <c r="L40" t="n">
+        <v>8.332564129505201</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.7719518272821375</v>
+      </c>
+      <c r="N40" t="n">
+        <v>7.106472416137549</v>
       </c>
     </row>
     <row r="41">
@@ -1694,25 +2304,40 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="D41" t="n">
-        <v>7211527318.088964</v>
+        <v>10553231018.66071</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001532106934649001</v>
+        <v>0.00219550369589986</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1776158715764846</v>
+        <v>0.1111969138100916</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.2776785795334109</v>
+        <v>0.1033342993291578</v>
       </c>
       <c r="I41" t="n">
-        <v>3.13480168017733</v>
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.2505881178236177</v>
+      </c>
+      <c r="L41" t="n">
+        <v>8.182194370319628</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.7287076515696109</v>
+      </c>
+      <c r="N41" t="n">
+        <v>6.391958661072589</v>
       </c>
     </row>
     <row r="42">
@@ -1725,25 +2350,40 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="D42" t="n">
-        <v>9237950243.822441</v>
+        <v>8961905554.623459</v>
       </c>
       <c r="E42" t="n">
-        <v>0.001144279356828981</v>
+        <v>0.004753020793672395</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1318492000770957</v>
+        <v>0.1262651646017647</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.1134402966569385</v>
+        <v>0.1472132830724271</v>
       </c>
       <c r="I42" t="n">
-        <v>0.399408518916845</v>
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.2019701943007429</v>
+      </c>
+      <c r="L42" t="n">
+        <v>8.133576446796754</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.7196483030156373</v>
+      </c>
+      <c r="N42" t="n">
+        <v>6.259389613515992</v>
       </c>
     </row>
     <row r="43">
@@ -1756,25 +2396,40 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>487</v>
+        <v>378</v>
       </c>
       <c r="D43" t="n">
-        <v>4413201723.562119</v>
+        <v>7483450840.247068</v>
       </c>
       <c r="E43" t="n">
-        <v>0.004111428154496694</v>
+        <v>0.003894510149731226</v>
       </c>
       <c r="F43" t="n">
-        <v>0.289051579761091</v>
+        <v>0.1323092034860365</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.6775767753986655</v>
+        <v>0.1648136195423516</v>
       </c>
       <c r="I43" t="n">
-        <v>3.121980405411778</v>
+        <v>3</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.1276158596907264</v>
+      </c>
+      <c r="L43" t="n">
+        <v>4.706930864675416</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.6037375286873787</v>
+      </c>
+      <c r="N43" t="n">
+        <v>7.367819709072159</v>
       </c>
     </row>
     <row r="44">
@@ -1787,25 +2442,40 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="D44" t="n">
-        <v>7136888693.030546</v>
+        <v>13109650724.76025</v>
       </c>
       <c r="E44" t="n">
-        <v>0.001635809515497397</v>
+        <v>0.00239899485333726</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2110372341200745</v>
+        <v>0.1176858745051131</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3976144851983998</v>
+        <v>0.1222302551228395</v>
       </c>
       <c r="I44" t="n">
-        <v>3.686116495096042</v>
+        <v>11</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.9837231184999129</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.373172959155587</v>
+      </c>
+      <c r="L44" t="n">
+        <v>2.764642225007056</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.8023869998812379</v>
+      </c>
+      <c r="N44" t="n">
+        <v>13.2830977726177</v>
       </c>
     </row>
     <row r="45">
@@ -1818,25 +2488,40 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>598</v>
+        <v>376</v>
       </c>
       <c r="D45" t="n">
-        <v>7482797973.265674</v>
+        <v>7352659112.626588</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001034802239271949</v>
+        <v>0.001818596851300997</v>
       </c>
       <c r="F45" t="n">
-        <v>0.209332822507887</v>
+        <v>0.1339502654636423</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.391498033480819</v>
+        <v>0.1695924178801689</v>
       </c>
       <c r="I45" t="n">
-        <v>3.833561154899883</v>
+        <v>4</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.2340962035540965</v>
+      </c>
+      <c r="L45" t="n">
+        <v>4.199899329802101</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.5474436918269255</v>
+      </c>
+      <c r="N45" t="n">
+        <v>6.748974506736409</v>
       </c>
     </row>
     <row r="46">
@@ -1849,25 +2534,40 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>410</v>
+        <v>594</v>
       </c>
       <c r="D46" t="n">
-        <v>5381153582.358338</v>
+        <v>11868728527.22698</v>
       </c>
       <c r="E46" t="n">
-        <v>0.002323942061119299</v>
+        <v>0.001716169518917231</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1995761473006188</v>
+        <v>0.1310938788793349</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.3564852276523116</v>
+        <v>0.1612745751371625</v>
       </c>
       <c r="I46" t="n">
-        <v>2.628361326938047</v>
+        <v>6</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.9799214058062362</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.3751312514981025</v>
+      </c>
+      <c r="L46" t="n">
+        <v>3.613195944712086</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.911686998344187</v>
+      </c>
+      <c r="N46" t="n">
+        <v>14.62054402217165</v>
       </c>
     </row>
     <row r="47">
@@ -1880,25 +2580,40 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>475</v>
+        <v>419</v>
       </c>
       <c r="D47" t="n">
-        <v>6619075599.705785</v>
+        <v>8231412310.632984</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004545676530028684</v>
+        <v>0.003104837579760703</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1879734158128221</v>
+        <v>0.1333336696768628</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.3148476640322884</v>
+        <v>0.1677968812330607</v>
       </c>
       <c r="I47" t="n">
-        <v>3.045052756818469</v>
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.2483044215716604</v>
+      </c>
+      <c r="L47" t="n">
+        <v>8.179910674067671</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.712086608043845</v>
+      </c>
+      <c r="N47" t="n">
+        <v>6.061821486809229</v>
       </c>
     </row>
     <row r="48">
@@ -1911,25 +2626,40 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D48" t="n">
-        <v>4044209142.003529</v>
+        <v>14832583804.11025</v>
       </c>
       <c r="E48" t="n">
-        <v>0.004913119409870457</v>
+        <v>0.004633460584861609</v>
       </c>
       <c r="F48" t="n">
-        <v>0.3788980975501348</v>
+        <v>0.1029560587803201</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0.07933679962721447</v>
       </c>
       <c r="I48" t="n">
-        <v>3.750222868923799</v>
+        <v>6</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.9777668791383175</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.2616279983082512</v>
+      </c>
+      <c r="L48" t="n">
+        <v>3.499692691522234</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.9036403865860283</v>
+      </c>
+      <c r="N48" t="n">
+        <v>14.57311504019833</v>
       </c>
     </row>
     <row r="49">
@@ -1942,25 +2672,40 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="D49" t="n">
-        <v>9886518960.40877</v>
+        <v>13285569637.01202</v>
       </c>
       <c r="E49" t="n">
-        <v>0.003272627013291664</v>
+        <v>0.001218675383278662</v>
       </c>
       <c r="F49" t="n">
-        <v>0.116576077446004</v>
+        <v>0.08497619002009964</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.05863116693629067</v>
+        <v>0.02697913847972338</v>
       </c>
       <c r="I49" t="n">
-        <v>2.820680448421319</v>
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.3392114087631368</v>
+      </c>
+      <c r="L49" t="n">
+        <v>8.270817661259146</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.7190731954183079</v>
+      </c>
+      <c r="N49" t="n">
+        <v>6.110646247107013</v>
       </c>
     </row>
     <row r="50">
@@ -1973,25 +2718,40 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D50" t="n">
-        <v>9429236982.519129</v>
+        <v>5312195455.053305</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004131512628833012</v>
+        <v>0.003098710838858551</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1469532807976797</v>
+        <v>0.256899845185818</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.1676428025570994</v>
+        <v>0.5276235314087846</v>
       </c>
       <c r="I50" t="n">
-        <v>3.391227175488358</v>
+        <v>4</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.9722292445050027</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.2682661370976812</v>
+      </c>
+      <c r="L50" t="n">
+        <v>4.234069263345686</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.8987076526085761</v>
+      </c>
+      <c r="N50" t="n">
+        <v>13.74008378882584</v>
       </c>
     </row>
     <row r="51">
@@ -2004,25 +2764,40 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>477</v>
+        <v>514</v>
       </c>
       <c r="D51" t="n">
-        <v>5022889691.678187</v>
+        <v>8487895869.523643</v>
       </c>
       <c r="E51" t="n">
-        <v>0.002903440489956149</v>
+        <v>0.003893258485698142</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2487510390821562</v>
+        <v>0.1586219341868011</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.5329542502453983</v>
+        <v>0.2414367059657546</v>
       </c>
       <c r="I51" t="n">
-        <v>3.057874031584021</v>
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.1070122309302951</v>
+      </c>
+      <c r="L51" t="n">
+        <v>8.038618483426305</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.7635530205443229</v>
+      </c>
+      <c r="N51" t="n">
+        <v>7.232441927460155</v>
       </c>
     </row>
     <row r="52">
@@ -2035,25 +2810,40 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>535</v>
+        <v>428</v>
       </c>
       <c r="D52" t="n">
-        <v>5430223896.528778</v>
+        <v>10599750405.94064</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0032647394106087</v>
+        <v>0.002978364556538109</v>
       </c>
       <c r="F52" t="n">
-        <v>0.2580692208466424</v>
+        <v>0.1057665394999941</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.5663934784521188</v>
+        <v>0.08752096376904678</v>
       </c>
       <c r="I52" t="n">
-        <v>3.429690999785012</v>
+        <v>2</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.5331232883015293</v>
+      </c>
+      <c r="L52" t="n">
+        <v>6.141615855143078</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.6828884446239837</v>
+      </c>
+      <c r="N52" t="n">
+        <v>7.516153037336595</v>
       </c>
     </row>
     <row r="53">
@@ -2066,25 +2856,40 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>455</v>
+        <v>528</v>
       </c>
       <c r="D53" t="n">
-        <v>4841166093.027285</v>
+        <v>15006069433.02187</v>
       </c>
       <c r="E53" t="n">
-        <v>0.001614771459233107</v>
+        <v>0.004748837903182749</v>
       </c>
       <c r="F53" t="n">
-        <v>0.246184994916117</v>
+        <v>0.09216523528516614</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0.5237457438408832</v>
+        <v>0.0479137515729566</v>
       </c>
       <c r="I53" t="n">
-        <v>2.916840009162954</v>
+        <v>5</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.9784327760204858</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.2059804363915486</v>
+      </c>
+      <c r="L53" t="n">
+        <v>3.753102586660237</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.8861575101106515</v>
+      </c>
+      <c r="N53" t="n">
+        <v>13.97004761555279</v>
       </c>
     </row>
     <row r="54">
@@ -2097,25 +2902,40 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>553</v>
+        <v>608</v>
       </c>
       <c r="D54" t="n">
-        <v>9763400410.367804</v>
+        <v>13865642878.08787</v>
       </c>
       <c r="E54" t="n">
-        <v>0.004702064893980365</v>
+        <v>0.003825806088110311</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1483625180896818</v>
+        <v>0.1148586570419175</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1726999916735725</v>
+        <v>0.113997353320143</v>
       </c>
       <c r="I54" t="n">
-        <v>3.545082472674976</v>
+        <v>8</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.2719246260592891</v>
+      </c>
+      <c r="L54" t="n">
+        <v>3.076170909480064</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.5549312785668883</v>
+      </c>
+      <c r="N54" t="n">
+        <v>8.022454661857703</v>
       </c>
     </row>
     <row r="55">
@@ -2128,25 +2948,40 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>567</v>
+        <v>505</v>
       </c>
       <c r="D55" t="n">
-        <v>4307241747.439672</v>
+        <v>14333260151.13977</v>
       </c>
       <c r="E55" t="n">
-        <v>0.001483566800546472</v>
+        <v>0.001561774962723762</v>
       </c>
       <c r="F55" t="n">
-        <v>0.3448132742683494</v>
+        <v>0.09228828166457388</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0.8776831990497018</v>
+        <v>0.04827206456869491</v>
       </c>
       <c r="I55" t="n">
-        <v>3.634831396033836</v>
+        <v>5</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.3175935873045467</v>
+      </c>
+      <c r="L55" t="n">
+        <v>3.864715737573235</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.6159933470211006</v>
+      </c>
+      <c r="N55" t="n">
+        <v>8.455151202848779</v>
       </c>
     </row>
     <row r="56">
@@ -2159,25 +2994,40 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>586</v>
+        <v>478</v>
       </c>
       <c r="D56" t="n">
-        <v>7331745139.870437</v>
+        <v>6355838536.029238</v>
       </c>
       <c r="E56" t="n">
-        <v>0.001146718870240128</v>
+        <v>0.004915031371577813</v>
       </c>
       <c r="F56" t="n">
-        <v>0.2093584147726015</v>
+        <v>0.1969950011949518</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.3915898738850677</v>
+        <v>0.3531796817569795</v>
       </c>
       <c r="I56" t="n">
-        <v>3.756633506306575</v>
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.2706123341327289</v>
+      </c>
+      <c r="L56" t="n">
+        <v>8.202218586628739</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.7450187242791234</v>
+      </c>
+      <c r="N56" t="n">
+        <v>6.698155898953729</v>
       </c>
     </row>
     <row r="57">
@@ -2190,25 +3040,40 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="D57" t="n">
-        <v>6378499794.686831</v>
+        <v>8497684494.182652</v>
       </c>
       <c r="E57" t="n">
-        <v>0.001892700453050512</v>
+        <v>0.002277044999587436</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1712449110541405</v>
+        <v>0.1159010599504179</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.2548157498325976</v>
+        <v>0.1170328470153569</v>
       </c>
       <c r="I57" t="n">
-        <v>2.673235788617477</v>
+        <v>2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.2437467094955434</v>
+      </c>
+      <c r="L57" t="n">
+        <v>5.852239276337093</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.6469696653878795</v>
+      </c>
+      <c r="N57" t="n">
+        <v>7.087154031420496</v>
       </c>
     </row>
     <row r="58">
@@ -2221,25 +3086,40 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>435</v>
+        <v>618</v>
       </c>
       <c r="D58" t="n">
-        <v>8070659994.462375</v>
+        <v>8996095086.105587</v>
       </c>
       <c r="E58" t="n">
-        <v>0.003599858423189042</v>
+        <v>0.003210105022742737</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1411823383443008</v>
+        <v>0.1799428534831963</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.1469331977711244</v>
+        <v>0.3035235589211804</v>
       </c>
       <c r="I58" t="n">
-        <v>2.78862726150744</v>
+        <v>8</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.98126100869458</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.4620020024359218</v>
+      </c>
+      <c r="L58" t="n">
+        <v>3.266248285856696</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.8899774782842423</v>
+      </c>
+      <c r="N58" t="n">
+        <v>14.53330127982815</v>
       </c>
     </row>
     <row r="59">
@@ -2252,25 +3132,40 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>520</v>
+        <v>603</v>
       </c>
       <c r="D59" t="n">
-        <v>7266130525.210262</v>
+        <v>9728060056.166834</v>
       </c>
       <c r="E59" t="n">
-        <v>0.002381176626755057</v>
+        <v>0.001921373897318952</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1874564178656266</v>
+        <v>0.1623645578748997</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0.3129923651364714</v>
+        <v>0.2523352851198795</v>
       </c>
       <c r="I59" t="n">
-        <v>3.333531439043377</v>
+        <v>7</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.9795953934989685</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.4211096037417005</v>
+      </c>
+      <c r="L59" t="n">
+        <v>3.418974981083047</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.8985622495050914</v>
+      </c>
+      <c r="N59" t="n">
+        <v>14.55227000901878</v>
       </c>
     </row>
     <row r="60">
@@ -2283,25 +3178,40 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>586</v>
+        <v>388</v>
       </c>
       <c r="D60" t="n">
-        <v>9979868996.982269</v>
+        <v>9293470945.594753</v>
       </c>
       <c r="E60" t="n">
-        <v>0.004383659442112248</v>
+        <v>0.004442299867078091</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1538058806647807</v>
+        <v>0.1093588526772931</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.1922340432687434</v>
+        <v>0.09798183634720556</v>
       </c>
       <c r="I60" t="n">
-        <v>3.756633506306575</v>
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.04139375179483476</v>
+      </c>
+      <c r="L60" t="n">
+        <v>7.973000004290845</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.6932563009722726</v>
+      </c>
+      <c r="N60" t="n">
+        <v>5.892126015154608</v>
       </c>
     </row>
     <row r="61">
@@ -2314,25 +3224,40 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="D61" t="n">
-        <v>4746697495.133274</v>
+        <v>12045649083.31227</v>
       </c>
       <c r="E61" t="n">
-        <v>0.00241419510991461</v>
+        <v>0.002019913043639493</v>
       </c>
       <c r="F61" t="n">
-        <v>0.2229410155344833</v>
+        <v>0.08328537242462455</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.4403323966214636</v>
+        <v>0.02205545099864666</v>
       </c>
       <c r="I61" t="n">
-        <v>2.589897502641393</v>
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.07974133220210222</v>
+      </c>
+      <c r="L61" t="n">
+        <v>8.011347584698113</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.6901050679494223</v>
+      </c>
+      <c r="N61" t="n">
+        <v>5.790753774290332</v>
       </c>
     </row>
     <row r="62">
@@ -2345,25 +3270,40 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="D62" t="n">
-        <v>10185052830.25983</v>
+        <v>8916350580.109997</v>
       </c>
       <c r="E62" t="n">
-        <v>0.003758092146377222</v>
+        <v>0.003771226796759389</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1478783934753116</v>
+        <v>0.1709763390641817</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.1709626620239069</v>
+        <v>0.2774129276431853</v>
       </c>
       <c r="I62" t="n">
-        <v>3.686116495096042</v>
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.7127287748768524</v>
+      </c>
+      <c r="L62" t="n">
+        <v>8.644335027372863</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.7959476929505965</v>
+      </c>
+      <c r="N62" t="n">
+        <v>7.274618831639067</v>
       </c>
     </row>
     <row r="63">
@@ -2376,25 +3316,40 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>561</v>
+        <v>596</v>
       </c>
       <c r="D63" t="n">
-        <v>11366573436.43637</v>
+        <v>4467132929.848314</v>
       </c>
       <c r="E63" t="n">
-        <v>0.001541526426544644</v>
+        <v>0.002427678262990123</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1292806313369237</v>
+        <v>0.3494761549558389</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0.1042227305653849</v>
+        <v>0.7972072042300137</v>
       </c>
       <c r="I63" t="n">
-        <v>3.596367571737181</v>
+        <v>5</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.5036737355505674</v>
+      </c>
+      <c r="L63" t="n">
+        <v>4.050795885819255</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.6823983670911179</v>
+      </c>
+      <c r="N63" t="n">
+        <v>9.597171456003103</v>
       </c>
     </row>
     <row r="64">
@@ -2407,25 +3362,40 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="D64" t="n">
-        <v>5971886963.912392</v>
+        <v>4132365721.282053</v>
       </c>
       <c r="E64" t="n">
-        <v>0.001804699437831559</v>
+        <v>0.004610314179341419</v>
       </c>
       <c r="F64" t="n">
-        <v>0.2289597221552599</v>
+        <v>0.3017229655107039</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.4619311279285199</v>
+        <v>0.6581491640950388</v>
       </c>
       <c r="I64" t="n">
-        <v>3.346352713808928</v>
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.3847609455365925</v>
+      </c>
+      <c r="L64" t="n">
+        <v>8.316367198032603</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.7439570607025268</v>
+      </c>
+      <c r="N64" t="n">
+        <v>6.562774016017931</v>
       </c>
     </row>
     <row r="65">
@@ -2438,25 +3408,40 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>461</v>
+        <v>383</v>
       </c>
       <c r="D65" t="n">
-        <v>10572676676.66508</v>
+        <v>5953244885.516412</v>
       </c>
       <c r="E65" t="n">
-        <v>0.00233644233676065</v>
+        <v>0.004978969050527762</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1142131578340189</v>
+        <v>0.1685175713904763</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.05015159333101437</v>
+        <v>0.2702529574333309</v>
       </c>
       <c r="I65" t="n">
-        <v>2.955303833459609</v>
+        <v>3</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.0515238373986573</v>
+      </c>
+      <c r="L65" t="n">
+        <v>4.630838842383348</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.6080297670689826</v>
+      </c>
+      <c r="N65" t="n">
+        <v>7.529756498996305</v>
       </c>
     </row>
     <row r="66">
@@ -2469,25 +3454,40 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D66" t="n">
-        <v>11483772455.23042</v>
+        <v>7255724801.550706</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001461693853076115</v>
+        <v>0.004938173837721294</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1072046058731575</v>
+        <v>0.1678697005900339</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.02500070291684505</v>
+        <v>0.2683663474536203</v>
       </c>
       <c r="I66" t="n">
-        <v>3.01299956990459</v>
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.5605239361523563</v>
+      </c>
+      <c r="L66" t="n">
+        <v>8.492130188648366</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.738053725464895</v>
+      </c>
+      <c r="N66" t="n">
+        <v>6.268944320649535</v>
       </c>
     </row>
     <row r="67">
@@ -2500,25 +3500,40 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>459</v>
+        <v>385</v>
       </c>
       <c r="D67" t="n">
-        <v>7456566129.621172</v>
+        <v>10851692606.84683</v>
       </c>
       <c r="E67" t="n">
-        <v>0.004617733709396809</v>
+        <v>0.001302970660678709</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1612404408543859</v>
+        <v>0.09293159938604535</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2189137068640923</v>
+        <v>0.05014541591069693</v>
       </c>
       <c r="I67" t="n">
-        <v>2.942482558694058</v>
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.1862495607038384</v>
+      </c>
+      <c r="L67" t="n">
+        <v>3.184114938045185</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-0.2330213290918453</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-7.844541519882092</v>
       </c>
     </row>
     <row r="68">
@@ -2531,25 +3546,40 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>446</v>
+        <v>513</v>
       </c>
       <c r="D68" t="n">
-        <v>6800606864.464098</v>
+        <v>9760874146.776211</v>
       </c>
       <c r="E68" t="n">
-        <v>0.004903775497223803</v>
+        <v>0.002442647305339544</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1717858366588671</v>
+        <v>0.1376666730657324</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.2567569155231242</v>
+        <v>0.1804146553787372</v>
       </c>
       <c r="I68" t="n">
-        <v>2.859144272717973</v>
+        <v>10</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.3100748008714284</v>
+      </c>
+      <c r="L68" t="n">
+        <v>2.818268927023426</v>
+      </c>
+      <c r="M68" t="n">
+        <v>-0.3918037241479667</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-10.65434340998276</v>
       </c>
     </row>
     <row r="69">
@@ -2562,25 +3592,40 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>544</v>
+        <v>470</v>
       </c>
       <c r="D69" t="n">
-        <v>4969167418.237045</v>
+        <v>11118889800.44198</v>
       </c>
       <c r="E69" t="n">
-        <v>0.001009454970858385</v>
+        <v>0.001473085525823155</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2867579294612579</v>
+        <v>0.1107226820389085</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.6693457816553534</v>
+        <v>0.1019533289387669</v>
       </c>
       <c r="I69" t="n">
-        <v>3.487386736229994</v>
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.08114164213517597</v>
+      </c>
+      <c r="L69" t="n">
+        <v>8.012747894631186</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.7407506723635582</v>
+      </c>
+      <c r="N69" t="n">
+        <v>6.802265552639977</v>
       </c>
     </row>
     <row r="70">
@@ -2593,25 +3638,40 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>507</v>
+        <v>403</v>
       </c>
       <c r="D70" t="n">
-        <v>9135850875.062557</v>
+        <v>6962030809.580194</v>
       </c>
       <c r="E70" t="n">
-        <v>0.002152856045830613</v>
+        <v>0.002059327837050325</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1453647556381448</v>
+        <v>0.151624461148234</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.1619422209775197</v>
+        <v>0.2210599542147863</v>
       </c>
       <c r="I70" t="n">
-        <v>0.4299240919520887</v>
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.06589521834262357</v>
+      </c>
+      <c r="L70" t="n">
+        <v>7.997501470838634</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.7025148520357446</v>
+      </c>
+      <c r="N70" t="n">
+        <v>6.052795569876258</v>
       </c>
     </row>
     <row r="71">
@@ -2624,25 +3684,40 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>417</v>
+        <v>573</v>
       </c>
       <c r="D71" t="n">
-        <v>8442894944.594169</v>
+        <v>8603602897.652809</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004135454195375603</v>
+        <v>0.002557261864882081</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1293733532358318</v>
+        <v>0.1744513883142457</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1045554723830179</v>
+        <v>0.2875323258174501</v>
       </c>
       <c r="I71" t="n">
-        <v>2.673235788617477</v>
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.8781069843706988</v>
+      </c>
+      <c r="L71" t="n">
+        <v>8.80971323686671</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.7918353453707936</v>
+      </c>
+      <c r="N71" t="n">
+        <v>7.026993670549162</v>
       </c>
     </row>
     <row r="72">
@@ -2655,25 +3730,40 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="D72" t="n">
-        <v>10863992173.29136</v>
+        <v>8427769235.790771</v>
       </c>
       <c r="E72" t="n">
-        <v>0.00148032754405016</v>
+        <v>0.001994795644767385</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1125972028042618</v>
+        <v>0.1653480821570274</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.04435257691583848</v>
+        <v>0.2610233548423103</v>
       </c>
       <c r="I72" t="n">
-        <v>0.3585093530704602</v>
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.3187506104630226</v>
+      </c>
+      <c r="L72" t="n">
+        <v>8.250356862959032</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.7724392747484302</v>
+      </c>
+      <c r="N72" t="n">
+        <v>7.198428632009572</v>
       </c>
     </row>
     <row r="73">
@@ -2686,25 +3776,40 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>509</v>
+        <v>571</v>
       </c>
       <c r="D73" t="n">
-        <v>4723003233.560404</v>
+        <v>8648544311.918846</v>
       </c>
       <c r="E73" t="n">
-        <v>0.004150488471087899</v>
+        <v>0.003990783982156835</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2822927370716458</v>
+        <v>0.1729391254825121</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0.6533219917060935</v>
+        <v>0.2831285926219648</v>
       </c>
       <c r="I73" t="n">
-        <v>3.263014427832844</v>
+        <v>4</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.9811099255503146</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.5225906980373503</v>
+      </c>
+      <c r="L73" t="n">
+        <v>4.488393824285355</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.9338119370444428</v>
+      </c>
+      <c r="N73" t="n">
+        <v>14.1878449166035</v>
       </c>
     </row>
     <row r="74">
@@ -2717,25 +3822,40 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>453</v>
+        <v>388</v>
       </c>
       <c r="D74" t="n">
-        <v>7262988981.10444</v>
+        <v>5067255871.336603</v>
       </c>
       <c r="E74" t="n">
-        <v>0.001253580176352478</v>
+        <v>0.00196962289377296</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1633740148975915</v>
+        <v>0.2005668049543197</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.2265702509335158</v>
+        <v>0.3635808305869463</v>
       </c>
       <c r="I74" t="n">
-        <v>2.904018734397403</v>
+        <v>3</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.1692360377066197</v>
+      </c>
+      <c r="L74" t="n">
+        <v>4.74855104269131</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.6122524470515829</v>
+      </c>
+      <c r="N74" t="n">
+        <v>7.496497898340349</v>
       </c>
     </row>
     <row r="75">
@@ -2748,25 +3868,40 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>568</v>
+        <v>396</v>
       </c>
       <c r="D75" t="n">
-        <v>6966106606.58408</v>
+        <v>5347669262.154749</v>
       </c>
       <c r="E75" t="n">
-        <v>0.002257239628741936</v>
+        <v>0.001746550265105777</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2135789191904958</v>
+        <v>0.1939683232358403</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.4067355765494352</v>
+        <v>0.344365947847178</v>
       </c>
       <c r="I75" t="n">
-        <v>3.641242033416612</v>
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.1726936799116815</v>
+      </c>
+      <c r="L75" t="n">
+        <v>8.104299932407692</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.6982298290145013</v>
+      </c>
+      <c r="N75" t="n">
+        <v>5.860296647882333</v>
       </c>
     </row>
     <row r="76">
@@ -2779,25 +3914,40 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>444</v>
+        <v>603</v>
       </c>
       <c r="D76" t="n">
-        <v>4646118279.536571</v>
+        <v>5424243017.095344</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001551751745503338</v>
+        <v>0.002500517279637018</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2503184572640723</v>
+        <v>0.2911912620843102</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.5385790873225431</v>
+        <v>0.6274806777640947</v>
       </c>
       <c r="I76" t="n">
-        <v>0.4193430002247915</v>
+        <v>8</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.2311353438507923</v>
+      </c>
+      <c r="L76" t="n">
+        <v>3.035381627271567</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.5496031501736623</v>
+      </c>
+      <c r="N76" t="n">
+        <v>7.956681376201679</v>
       </c>
     </row>
     <row r="77">
@@ -2810,25 +3960,40 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>520</v>
+        <v>459</v>
       </c>
       <c r="D77" t="n">
-        <v>7816293391.083001</v>
+        <v>9590470682.07807</v>
       </c>
       <c r="E77" t="n">
-        <v>0.003583660996018748</v>
+        <v>0.001640206356068186</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1742619847860233</v>
+        <v>0.1253640253806067</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2656428209916341</v>
+        <v>0.1445891514607166</v>
       </c>
       <c r="I77" t="n">
-        <v>0.4656191373036968</v>
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.1374391805008106</v>
+      </c>
+      <c r="L77" t="n">
+        <v>8.069045432996822</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.7347867313758976</v>
+      </c>
+      <c r="N77" t="n">
+        <v>6.626689194521129</v>
       </c>
     </row>
     <row r="78">
@@ -2841,25 +4006,40 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="D78" t="n">
-        <v>7980641787.319426</v>
+        <v>9049393420.443575</v>
       </c>
       <c r="E78" t="n">
-        <v>0.002291478011280351</v>
+        <v>0.002681387335630043</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1568881868610407</v>
+        <v>0.1325702800465929</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2032952076573315</v>
+        <v>0.165573878600605</v>
       </c>
       <c r="I78" t="n">
-        <v>0.3631844040032329</v>
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.0632872528968952</v>
+      </c>
+      <c r="L78" t="n">
+        <v>7.994893505392906</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.7342389260321228</v>
+      </c>
+      <c r="N78" t="n">
+        <v>6.689885015249551</v>
       </c>
     </row>
     <row r="79">
@@ -2872,25 +4052,40 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>425</v>
+        <v>533</v>
       </c>
       <c r="D79" t="n">
-        <v>6728415336.910768</v>
+        <v>4627347813.28142</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003928845664380482</v>
+        <v>0.002286660564860322</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1654536312425571</v>
+        <v>0.3017138383228535</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.234033162400511</v>
+        <v>0.6581225855801968</v>
       </c>
       <c r="I79" t="n">
-        <v>2.724520887679683</v>
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.365173325936356</v>
+      </c>
+      <c r="L79" t="n">
+        <v>8.296779578432366</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.7729260055281403</v>
+      </c>
+      <c r="N79" t="n">
+        <v>7.161740532130439</v>
       </c>
     </row>
     <row r="80">
@@ -2903,25 +4098,40 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>462</v>
+        <v>562</v>
       </c>
       <c r="D80" t="n">
-        <v>8932100664.689939</v>
+        <v>7825903324.530456</v>
       </c>
       <c r="E80" t="n">
-        <v>0.002232241306376718</v>
+        <v>0.00240263065359294</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1354841627327325</v>
+        <v>0.1881057200624599</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.1264847240824694</v>
+        <v>0.3272939550263419</v>
       </c>
       <c r="I80" t="n">
-        <v>2.961714470842385</v>
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.5219558866169458</v>
+      </c>
+      <c r="L80" t="n">
+        <v>8.453562139112956</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.7867404827503893</v>
+      </c>
+      <c r="N80" t="n">
+        <v>7.281247515894831</v>
       </c>
     </row>
     <row r="81">
@@ -2934,25 +4144,40 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="D81" t="n">
-        <v>7079573543.321569</v>
+        <v>5635371257.173736</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001917182933926802</v>
+        <v>0.001780150818363885</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1568768730494637</v>
+        <v>0.1798823686566473</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.2032546069117383</v>
+        <v>0.3033474261531803</v>
       </c>
       <c r="I81" t="n">
-        <v>2.718110250296907</v>
+        <v>7</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.2065796588510976</v>
+      </c>
+      <c r="L81" t="n">
+        <v>3.204445036192444</v>
+      </c>
+      <c r="M81" t="n">
+        <v>-0.2155889452233792</v>
+      </c>
+      <c r="N81" t="n">
+        <v>-7.516223940660028</v>
       </c>
     </row>
     <row r="82">
@@ -2965,25 +4190,40 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="D82" t="n">
-        <v>5400444554.862019</v>
+        <v>5608303676.064182</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003206823848763001</v>
+        <v>0.003856824950587691</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2124441438746172</v>
+        <v>0.231659609579446</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.4026633217136649</v>
+        <v>0.454123567600091</v>
       </c>
       <c r="I82" t="n">
-        <v>0.3771947779143347</v>
+        <v>11</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.2941358521968019</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2.685605118048271</v>
+      </c>
+      <c r="M82" t="n">
+        <v>-0.5144858872102829</v>
+      </c>
+      <c r="N82" t="n">
+        <v>-12.97532286225393</v>
       </c>
     </row>
     <row r="83">
@@ -2996,25 +4236,40 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>437</v>
+        <v>568</v>
       </c>
       <c r="D83" t="n">
-        <v>10037968016.25462</v>
+        <v>12571384815.44697</v>
       </c>
       <c r="E83" t="n">
-        <v>0.001812576781077812</v>
+        <v>0.001074467946424377</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1140343770916997</v>
+        <v>0.1183492146523001</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0.04951002073751082</v>
+        <v>0.1241619120840284</v>
       </c>
       <c r="I83" t="n">
-        <v>2.801448536272992</v>
+        <v>4</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.9783765079615073</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.5048860692207958</v>
+      </c>
+      <c r="L83" t="n">
+        <v>4.470689195468801</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.9309887930572646</v>
+      </c>
+      <c r="N83" t="n">
+        <v>14.14908666567649</v>
       </c>
     </row>
     <row r="84">
@@ -3027,25 +4282,40 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>526</v>
+        <v>605</v>
       </c>
       <c r="D84" t="n">
-        <v>4542633616.248309</v>
+        <v>5723513593.392714</v>
       </c>
       <c r="E84" t="n">
-        <v>0.001655168646819171</v>
+        <v>0.002189648524973373</v>
       </c>
       <c r="F84" t="n">
-        <v>0.3033040426310901</v>
+        <v>0.2768807873243161</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0.7287231653772457</v>
+        <v>0.5858083497657278</v>
       </c>
       <c r="I84" t="n">
-        <v>3.371995263340031</v>
+        <v>10</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.9839979545003231</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.360527346540194</v>
+      </c>
+      <c r="L84" t="n">
+        <v>2.868721472692191</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.8395850038110449</v>
+      </c>
+      <c r="N84" t="n">
+        <v>13.92297860352871</v>
       </c>
     </row>
     <row r="85">
@@ -3058,25 +4328,40 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D85" t="n">
-        <v>10045777373.34663</v>
+        <v>9061784382.078455</v>
       </c>
       <c r="E85" t="n">
-        <v>0.002764320414065716</v>
+        <v>0.002715974243362818</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1259400166836989</v>
+        <v>0.138748302429992</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.09223460041690038</v>
+        <v>0.1835643771312328</v>
       </c>
       <c r="I85" t="n">
-        <v>3.096337855880675</v>
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.09019599151185029</v>
+      </c>
+      <c r="L85" t="n">
+        <v>8.02180224400786</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.7460768694749538</v>
+      </c>
+      <c r="N85" t="n">
+        <v>6.899735145491215</v>
       </c>
     </row>
     <row r="86">
@@ -3089,25 +4374,40 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="D86" t="n">
-        <v>4994869434.603984</v>
+        <v>3914580476.074008</v>
       </c>
       <c r="E86" t="n">
-        <v>0.003747675497186098</v>
+        <v>0.001306615275381153</v>
       </c>
       <c r="F86" t="n">
-        <v>0.2695498806580409</v>
+        <v>0.3941215973026357</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.6075929756394595</v>
+        <v>0.927215435844312</v>
       </c>
       <c r="I86" t="n">
-        <v>3.295067614746722</v>
+        <v>7</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.9791642355957948</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.3479280820481733</v>
+      </c>
+      <c r="L86" t="n">
+        <v>3.345793459389519</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.8888797646263694</v>
+      </c>
+      <c r="N86" t="n">
+        <v>14.43180183313787</v>
       </c>
     </row>
     <row r="87">
@@ -3120,25 +4420,40 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>415</v>
+        <v>594</v>
       </c>
       <c r="D87" t="n">
-        <v>7184109349.815579</v>
+        <v>6537253084.335071</v>
       </c>
       <c r="E87" t="n">
-        <v>0.00213187991332115</v>
+        <v>0.001730716117933279</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1513126815125531</v>
+        <v>0.2380078665958912</v>
       </c>
       <c r="G87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1832869484896004</v>
+        <v>0.4726097920646209</v>
       </c>
       <c r="I87" t="n">
-        <v>2.660414513851926</v>
+        <v>7</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.273710524239456</v>
+      </c>
+      <c r="L87" t="n">
+        <v>3.271575901580802</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.5958221214562247</v>
+      </c>
+      <c r="N87" t="n">
+        <v>8.644866527543691</v>
       </c>
     </row>
     <row r="88">
@@ -3151,25 +4466,40 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D88" t="n">
-        <v>4017892197.592076</v>
+        <v>12138902148.38354</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004376081163326431</v>
+        <v>0.003298927118167436</v>
       </c>
       <c r="F88" t="n">
-        <v>0.2927171890537135</v>
+        <v>0.09537686076118283</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.6907311813493886</v>
+        <v>0.05726605556629618</v>
       </c>
       <c r="I88" t="n">
-        <v>2.8783761848663</v>
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.2480176285071592</v>
+      </c>
+      <c r="L88" t="n">
+        <v>8.17962388100317</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.7253412919956607</v>
+      </c>
+      <c r="N88" t="n">
+        <v>6.327201958910043</v>
       </c>
     </row>
     <row r="89">
@@ -3182,25 +4512,40 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>509</v>
+        <v>578</v>
       </c>
       <c r="D89" t="n">
-        <v>5090568008.304606</v>
+        <v>3612381386.997523</v>
       </c>
       <c r="E89" t="n">
-        <v>0.002511555927821913</v>
+        <v>0.001280075440552624</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2619097727060993</v>
+        <v>0.4191161612806301</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.5801756833193369</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>0.4431176934269518</v>
+        <v>4</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.9790399530806749</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.2441567721519984</v>
+      </c>
+      <c r="L89" t="n">
+        <v>4.209959898400004</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.9373450005484706</v>
+      </c>
+      <c r="N89" t="n">
+        <v>14.53694011256941</v>
       </c>
     </row>
     <row r="90">
@@ -3213,25 +4558,40 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="D90" t="n">
-        <v>6276033916.944503</v>
+        <v>9580234659.001022</v>
       </c>
       <c r="E90" t="n">
-        <v>0.00104923938025695</v>
+        <v>0.003534428900257333</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1903179389733948</v>
+        <v>0.1178423212148878</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.3232612201298021</v>
+        <v>0.122685830406912</v>
       </c>
       <c r="I90" t="n">
-        <v>2.92325064654573</v>
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.5156608453688063</v>
+      </c>
+      <c r="L90" t="n">
+        <v>8.447267097864817</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.7190731954183079</v>
+      </c>
+      <c r="N90" t="n">
+        <v>5.934196810501343</v>
       </c>
     </row>
     <row r="91">
@@ -3244,25 +4604,40 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="D91" t="n">
-        <v>6340761493.22127</v>
+        <v>15325116782.15367</v>
       </c>
       <c r="E91" t="n">
-        <v>0.001304259300510288</v>
+        <v>0.001962726968511287</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1987027254292646</v>
+        <v>0.077598303288941</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.3533508658191625</v>
+        <v>0.005494616061561029</v>
       </c>
       <c r="I91" t="n">
-        <v>3.083516581115124</v>
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.0377877268563677</v>
+      </c>
+      <c r="L91" t="n">
+        <v>7.969393979352378</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.732038110758058</v>
+      </c>
+      <c r="N91" t="n">
+        <v>6.671368235808782</v>
       </c>
     </row>
     <row r="92">
@@ -3275,25 +4650,40 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>549</v>
+        <v>379</v>
       </c>
       <c r="D92" t="n">
-        <v>4689689264.798829</v>
+        <v>13112271963.88706</v>
       </c>
       <c r="E92" t="n">
-        <v>0.004153207347415489</v>
+        <v>0.002117266920926892</v>
       </c>
       <c r="F92" t="n">
-        <v>0.3066397428064324</v>
+        <v>0.07571142611548649</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.7406936594298074</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>3.519439923143873</v>
+        <v>6</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.128864271289646</v>
+      </c>
+      <c r="L92" t="n">
+        <v>3.366928964503629</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.3715692791306068</v>
+      </c>
+      <c r="N92" t="n">
+        <v>4.064456618108506</v>
       </c>
     </row>
     <row r="93">
@@ -3306,25 +4696,40 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>481</v>
+        <v>396</v>
       </c>
       <c r="D93" t="n">
-        <v>11215739714.20487</v>
+        <v>11792298702.97893</v>
       </c>
       <c r="E93" t="n">
-        <v>0.003862009272679614</v>
+        <v>0.001482920202852919</v>
       </c>
       <c r="F93" t="n">
-        <v>0.11233557679698</v>
+        <v>0.08796236137895372</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.04341370579447344</v>
+        <v>0.03567491653129284</v>
       </c>
       <c r="I93" t="n">
-        <v>0.4243817171929339</v>
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.4213698921071654</v>
+      </c>
+      <c r="L93" t="n">
+        <v>8.352976144603176</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.6982298290145013</v>
+      </c>
+      <c r="N93" t="n">
+        <v>5.611620435686849</v>
       </c>
     </row>
     <row r="94">
@@ -3337,25 +4742,40 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="D94" t="n">
-        <v>11063288852.53942</v>
+        <v>9039446756.267296</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004689348671871648</v>
+        <v>0.001073756052684995</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1074909166569429</v>
+        <v>0.1483639116597661</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.02602815783015579</v>
+        <v>0.2115651827262688</v>
       </c>
       <c r="I94" t="n">
-        <v>2.910429371780179</v>
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.4811734120426803</v>
+      </c>
+      <c r="L94" t="n">
+        <v>8.412779664538691</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.7625506491493792</v>
+      </c>
+      <c r="N94" t="n">
+        <v>6.838233318448893</v>
       </c>
     </row>
     <row r="95">
@@ -3368,25 +4788,40 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>583</v>
+        <v>504</v>
       </c>
       <c r="D95" t="n">
-        <v>9744414666.388071</v>
+        <v>7205494080.455685</v>
       </c>
       <c r="E95" t="n">
-        <v>0.001191019939142208</v>
+        <v>0.002183530205805787</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1567158646550134</v>
+        <v>0.1832174928268778</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.2026768121679458</v>
+        <v>0.3130593602901007</v>
       </c>
       <c r="I95" t="n">
-        <v>3.737401594158247</v>
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.4677559338858057</v>
+      </c>
+      <c r="L95" t="n">
+        <v>8.399362186381817</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.7585100917304606</v>
+      </c>
+      <c r="N95" t="n">
+        <v>6.770839648227396</v>
       </c>
     </row>
     <row r="96">
@@ -3399,25 +4834,40 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="D96" t="n">
-        <v>6042974823.020131</v>
+        <v>6892042378.616667</v>
       </c>
       <c r="E96" t="n">
-        <v>0.002045385215249732</v>
+        <v>0.003703972865183998</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2579089100392911</v>
+        <v>0.2196747113304726</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.5658181870694746</v>
+        <v>0.4192233550470817</v>
       </c>
       <c r="I96" t="n">
-        <v>3.814329242751556</v>
+        <v>6</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.9775153159356851</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.2852237861399916</v>
+      </c>
+      <c r="L96" t="n">
+        <v>3.523288479353975</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.9002244079121288</v>
+      </c>
+      <c r="N96" t="n">
+        <v>14.4811996788886</v>
       </c>
     </row>
     <row r="97">
@@ -3430,25 +4880,40 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="D97" t="n">
-        <v>4772729972.01374</v>
+        <v>12552544209.75127</v>
       </c>
       <c r="E97" t="n">
-        <v>0.003263687175329887</v>
+        <v>0.001835714537144573</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3287457323587053</v>
+        <v>0.1210309380005844</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0.8200232162099854</v>
+        <v>0.1319711327314799</v>
       </c>
       <c r="I97" t="n">
-        <v>3.839971792282659</v>
+        <v>12</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.985681492438356</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.3554051253277581</v>
+      </c>
+      <c r="L97" t="n">
+        <v>2.645062627820103</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.7688275873725661</v>
+      </c>
+      <c r="N97" t="n">
+        <v>12.73148911963122</v>
       </c>
     </row>
     <row r="98">
@@ -3461,25 +4926,40 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="D98" t="n">
-        <v>9280102401.242958</v>
+        <v>7764987171.067331</v>
       </c>
       <c r="E98" t="n">
-        <v>0.001715347788404721</v>
+        <v>0.001755445146982878</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1151615654431635</v>
+        <v>0.1426920541644244</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0.05355504899186504</v>
+        <v>0.1950486443255561</v>
       </c>
       <c r="I98" t="n">
-        <v>0.2167870360426605</v>
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.1270455696404666</v>
+      </c>
+      <c r="L98" t="n">
+        <v>8.058651822136477</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.7144332095495978</v>
+      </c>
+      <c r="N98" t="n">
+        <v>6.230012368855478</v>
       </c>
     </row>
     <row r="99">
@@ -3492,25 +4972,40 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>533</v>
+        <v>417</v>
       </c>
       <c r="D99" t="n">
-        <v>8190947606.333674</v>
+        <v>10365732891.13984</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004233064340437886</v>
+        <v>0.004987218711569141</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1704485167162386</v>
+        <v>0.1053746649147824</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2519578090153088</v>
+        <v>0.08637981880194766</v>
       </c>
       <c r="I99" t="n">
-        <v>0.2727433718304382</v>
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.1941517126041738</v>
+      </c>
+      <c r="L99" t="n">
+        <v>8.125757965100185</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.7109065098116428</v>
+      </c>
+      <c r="N99" t="n">
+        <v>6.092372231132671</v>
       </c>
     </row>
     <row r="100">
@@ -3523,25 +5018,40 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="D100" t="n">
-        <v>5954271739.565447</v>
+        <v>10935688189.64766</v>
       </c>
       <c r="E100" t="n">
-        <v>0.001900736546156981</v>
+        <v>0.002270177291117059</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1957634117123901</v>
+        <v>0.1202424353361493</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.3428028442593868</v>
+        <v>0.1296750005478166</v>
       </c>
       <c r="I100" t="n">
-        <v>2.852733635335198</v>
+        <v>7</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.2413480853146142</v>
+      </c>
+      <c r="L100" t="n">
+        <v>3.239213462655961</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.4954136340672915</v>
+      </c>
+      <c r="N100" t="n">
+        <v>6.669059218689869</v>
       </c>
     </row>
     <row r="101">
@@ -3554,25 +5064,40 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>649</v>
+        <v>604</v>
       </c>
       <c r="D101" t="n">
-        <v>8134640210.491341</v>
+        <v>5993789018.746279</v>
       </c>
       <c r="E101" t="n">
-        <v>0.004566768039588344</v>
+        <v>0.003169170035935485</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2089808603713672</v>
+        <v>0.2639585002161005</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.3902349821151473</v>
+        <v>0.5481784460837029</v>
       </c>
       <c r="I101" t="n">
-        <v>4.160503661421445</v>
+        <v>8</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.368669778590096</v>
+      </c>
+      <c r="L101" t="n">
+        <v>3.172916062010871</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.5506784238392984</v>
+      </c>
+      <c r="N101" t="n">
+        <v>7.840652414775098</v>
       </c>
     </row>
   </sheetData>
